--- a/Rawdata/min sammanställning plus BEBODDA_LYOR_HEF 00_10.xlsx
+++ b/Rawdata/min sammanställning plus BEBODDA_LYOR_HEF 00_10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-560" yWindow="460" windowWidth="25360" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="3160" windowWidth="19840" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,9 +309,6 @@
     <t>2011-FSZZ009</t>
   </si>
   <si>
-    <t>28 kullar enligt Fjellområder_kull_1977_2016_Bodil_Nina. Bara 23 här</t>
-  </si>
-  <si>
     <t>2011-FSZZ010</t>
   </si>
   <si>
@@ -732,9 +729,6 @@
     <t>Finns även i Helags_Red_Fox_Feeding</t>
   </si>
   <si>
-    <t>10 kullar enligt Fjellområder_kull_1977_2016_Bodil_Nina. Bara 9 här om man räknar bort FSZZ059</t>
-  </si>
-  <si>
     <t>14 kullar enligt hemsidan. 13 enligt Fjellområder_kull_1977_2016_Bodil_Nina. 14 kullar här när kullarna från BEBODDA_LYOR_HEF 00_10.xlsx är inlagda</t>
   </si>
   <si>
@@ -751,6 +745,12 @@
   </si>
   <si>
     <t>Finns INTE i  Helags_Red_Fox_Feeding,  och BEBODDA_LYOR_HEF 00_10.xlsx. Där står det reproduktion på ZZ010 gråsjön istället. Den finns bara i komplexa kullar Helags - genetiskt och observationer</t>
+  </si>
+  <si>
+    <t>10 kullar enligt Fjellområder_kull_1977_2016_Bodil_Nina. 10 med FSZZ059</t>
+  </si>
+  <si>
+    <t>28 kullar enligt Fjellområder_kull_1977_2016_Bodil_Nina. Bara 23 här. 25 lyor med kull enligt Antal fjallravskullar 1972-2015_Bodi l Elmhagen. Resten komplexa</t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H66" sqref="H65:H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1213,7 +1213,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1221,7 +1221,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1236,10 +1236,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1265,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1299,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1314,10 +1314,10 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1577,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1603,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1629,7 +1629,7 @@
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1655,7 +1655,7 @@
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1707,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1715,7 +1715,7 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1730,10 +1730,10 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1785,7 +1785,7 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1811,7 +1811,7 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1837,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1863,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1889,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1915,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1941,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1967,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1993,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2001,7 +2001,7 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2016,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2045,7 +2045,7 @@
         <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2071,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2097,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2123,7 +2123,7 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2149,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2175,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2201,7 +2201,7 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2227,7 +2227,7 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2253,7 +2253,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2279,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2305,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2331,7 +2331,7 @@
         <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2357,7 +2357,7 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2383,15 +2383,15 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2406,10 +2406,10 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2487,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2513,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2539,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2565,7 +2565,7 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2591,7 +2591,7 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2617,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2643,7 +2643,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2669,7 +2669,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2695,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2721,7 +2721,7 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2747,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2781,7 +2781,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2796,10 +2796,10 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H63" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2807,7 +2807,7 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2822,10 +2822,10 @@
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2851,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2859,7 +2859,7 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
         <v>24</v>
@@ -2877,15 +2877,15 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
         <v>98</v>
-      </c>
-      <c r="B67" t="s">
-        <v>99</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
@@ -2903,7 +2903,7 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2911,7 +2911,7 @@
         <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
@@ -2929,7 +2929,7 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2937,7 +2937,7 @@
         <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
         <v>24</v>
@@ -2955,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2963,7 +2963,7 @@
         <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -2981,15 +2981,15 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
         <v>103</v>
-      </c>
-      <c r="B71" t="s">
-        <v>104</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -3007,7 +3007,7 @@
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3015,7 +3015,7 @@
         <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -3033,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3041,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
         <v>24</v>
@@ -3059,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3067,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -3085,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3093,7 +3093,7 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -3111,7 +3111,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3119,7 +3119,7 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -3137,15 +3137,15 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
         <v>110</v>
-      </c>
-      <c r="B77" t="s">
-        <v>111</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -3163,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3171,7 +3171,7 @@
         <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3189,15 +3189,15 @@
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" t="s">
         <v>113</v>
-      </c>
-      <c r="B79" t="s">
-        <v>114</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -3215,7 +3215,7 @@
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3223,7 +3223,7 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -3241,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3249,7 +3249,7 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
         <v>24</v>
@@ -3267,7 +3267,7 @@
         <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3275,7 +3275,7 @@
         <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3293,15 +3293,15 @@
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" t="s">
         <v>118</v>
-      </c>
-      <c r="B83" t="s">
-        <v>119</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -3319,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3327,7 +3327,7 @@
         <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
         <v>24</v>
@@ -3345,15 +3345,15 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" t="s">
         <v>121</v>
-      </c>
-      <c r="B85" t="s">
-        <v>122</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -3371,15 +3371,15 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" t="s">
         <v>123</v>
-      </c>
-      <c r="B86" t="s">
-        <v>124</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -3397,15 +3397,15 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" t="s">
         <v>125</v>
-      </c>
-      <c r="B87" t="s">
-        <v>126</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -3423,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3431,7 +3431,7 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -3483,7 +3483,7 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -3509,7 +3509,7 @@
         <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -3561,7 +3561,7 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -3587,7 +3587,7 @@
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -3613,7 +3613,7 @@
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
@@ -3636,10 +3636,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -3665,7 +3665,7 @@
         <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
@@ -3688,10 +3688,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
@@ -3717,7 +3717,7 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -3743,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -3769,7 +3769,7 @@
         <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -3795,7 +3795,7 @@
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
@@ -3873,7 +3873,7 @@
         <v>94</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -3891,15 +3891,15 @@
         <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
@@ -3917,7 +3917,7 @@
         <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3925,7 +3925,7 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
@@ -3943,7 +3943,7 @@
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3951,7 +3951,7 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
@@ -3969,7 +3969,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3977,7 +3977,7 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -3995,15 +3995,15 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" t="s">
         <v>150</v>
-      </c>
-      <c r="B110" t="s">
-        <v>151</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -4021,7 +4021,7 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4029,7 +4029,7 @@
         <v>31</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
@@ -4047,7 +4047,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4055,7 +4055,7 @@
         <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -4073,15 +4073,15 @@
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" t="s">
         <v>24</v>
@@ -4099,7 +4099,7 @@
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4107,7 +4107,7 @@
         <v>37</v>
       </c>
       <c r="B114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -4125,15 +4125,15 @@
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
@@ -4151,7 +4151,7 @@
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4159,7 +4159,7 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
@@ -4177,7 +4177,7 @@
         <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4185,7 +4185,7 @@
         <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -4203,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4211,7 +4211,7 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -4229,7 +4229,7 @@
         <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4237,7 +4237,7 @@
         <v>72</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -4255,15 +4255,15 @@
         <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" t="s">
         <v>161</v>
-      </c>
-      <c r="B120" t="s">
-        <v>162</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
@@ -4281,15 +4281,15 @@
         <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" t="s">
         <v>163</v>
-      </c>
-      <c r="B121" t="s">
-        <v>164</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -4307,7 +4307,7 @@
         <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4315,7 +4315,7 @@
         <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
@@ -4333,15 +4333,15 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" t="s">
         <v>166</v>
-      </c>
-      <c r="B123" t="s">
-        <v>167</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
@@ -4359,15 +4359,15 @@
         <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -4385,15 +4385,15 @@
         <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -4411,15 +4411,15 @@
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
@@ -4437,7 +4437,7 @@
         <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4445,7 +4445,7 @@
         <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
@@ -4463,7 +4463,7 @@
         <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4471,7 +4471,7 @@
         <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -4497,7 +4497,7 @@
         <v>60</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -4523,7 +4523,7 @@
         <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C130" t="s">
         <v>10</v>
@@ -4549,7 +4549,7 @@
         <v>62</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C132" t="s">
         <v>24</v>
@@ -4601,7 +4601,7 @@
         <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C133" t="s">
         <v>24</v>
@@ -4627,7 +4627,7 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C134" t="s">
         <v>24</v>
@@ -4653,7 +4653,7 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C135" t="s">
         <v>24</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -4705,7 +4705,7 @@
         <v>31</v>
       </c>
       <c r="B137" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C137" t="s">
         <v>10</v>
@@ -4728,10 +4728,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
+        <v>181</v>
+      </c>
+      <c r="B138" t="s">
         <v>182</v>
-      </c>
-      <c r="B138" t="s">
-        <v>183</v>
       </c>
       <c r="C138" t="s">
         <v>24</v>
@@ -4754,10 +4754,10 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
+        <v>183</v>
+      </c>
+      <c r="B139" t="s">
         <v>184</v>
-      </c>
-      <c r="B139" t="s">
-        <v>185</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
@@ -4780,10 +4780,10 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C140" t="s">
         <v>24</v>
@@ -4809,7 +4809,7 @@
         <v>37</v>
       </c>
       <c r="B141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C141" t="s">
         <v>24</v>
@@ -4832,10 +4832,10 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -4861,7 +4861,7 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -4887,7 +4887,7 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C144" t="s">
         <v>24</v>
@@ -4913,7 +4913,7 @@
         <v>42</v>
       </c>
       <c r="B145" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C145" t="s">
         <v>10</v>
@@ -4939,7 +4939,7 @@
         <v>72</v>
       </c>
       <c r="B146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
         <v>10</v>
@@ -4962,13 +4962,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B147" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" t="s">
         <v>193</v>
-      </c>
-      <c r="C147" t="s">
-        <v>194</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -4988,13 +4988,13 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -5017,7 +5017,7 @@
         <v>54</v>
       </c>
       <c r="B149" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C149" t="s">
         <v>10</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B150" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C150" t="s">
         <v>10</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B151" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
+        <v>198</v>
+      </c>
+      <c r="B152" t="s">
         <v>199</v>
-      </c>
-      <c r="B152" t="s">
-        <v>200</v>
       </c>
       <c r="C152" t="s">
         <v>10</v>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B153" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C153" t="s">
         <v>10</v>
@@ -5144,13 +5144,13 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B154" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -5173,7 +5173,7 @@
         <v>75</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C155" t="s">
         <v>10</v>
@@ -5196,10 +5196,10 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
+        <v>203</v>
+      </c>
+      <c r="B156" t="s">
         <v>204</v>
-      </c>
-      <c r="B156" t="s">
-        <v>205</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -5225,7 +5225,7 @@
         <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s">
         <v>10</v>
@@ -5243,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5251,7 +5251,7 @@
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C158" t="s">
         <v>10</v>
@@ -5269,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5277,7 +5277,7 @@
         <v>94</v>
       </c>
       <c r="B159" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C159" t="s">
         <v>24</v>
@@ -5295,7 +5295,7 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5303,7 +5303,7 @@
         <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C160" t="s">
         <v>10</v>
@@ -5321,7 +5321,7 @@
         <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5329,7 +5329,7 @@
         <v>45</v>
       </c>
       <c r="B161" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C161" t="s">
         <v>10</v>
@@ -5347,15 +5347,15 @@
         <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B162" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C162" t="s">
         <v>10</v>
@@ -5373,7 +5373,7 @@
         <v>12</v>
       </c>
       <c r="H162" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5381,7 +5381,7 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
@@ -5399,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="H163" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5407,7 +5407,7 @@
         <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C164" t="s">
         <v>10</v>
@@ -5425,7 +5425,7 @@
         <v>12</v>
       </c>
       <c r="H164" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5433,7 +5433,7 @@
         <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C165" t="s">
         <v>10</v>
@@ -5451,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5459,7 +5459,7 @@
         <v>88</v>
       </c>
       <c r="B166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C166" t="s">
         <v>10</v>
@@ -5477,7 +5477,7 @@
         <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5485,7 +5485,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C167" t="s">
         <v>24</v>
@@ -5503,15 +5503,15 @@
         <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B168" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C168" t="s">
         <v>10</v>
@@ -5529,7 +5529,7 @@
         <v>12</v>
       </c>
       <c r="H168" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5537,7 +5537,7 @@
         <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C169" t="s">
         <v>10</v>
@@ -5555,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5563,7 +5563,7 @@
         <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
@@ -5581,15 +5581,15 @@
         <v>12</v>
       </c>
       <c r="H170" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C171" t="s">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         <v>12</v>
       </c>
       <c r="H171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5615,7 +5615,7 @@
         <v>54</v>
       </c>
       <c r="B172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C172" t="s">
         <v>10</v>
@@ -5633,15 +5633,15 @@
         <v>12</v>
       </c>
       <c r="H172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B173" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C173" t="s">
         <v>10</v>
@@ -5659,15 +5659,15 @@
         <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
+        <v>223</v>
+      </c>
+      <c r="B174" t="s">
         <v>224</v>
-      </c>
-      <c r="B174" t="s">
-        <v>225</v>
       </c>
       <c r="C174" t="s">
         <v>10</v>
@@ -5685,7 +5685,7 @@
         <v>12</v>
       </c>
       <c r="H174" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
